--- a/results/pvalue_SIDER_rare_enzyme_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_enzyme_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.895</t>
+          <t>9.949</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5.428</t>
+          <t>20.436</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.638</t>
+          <t>7.172</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.669</t>
+          <t>8.927</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>34.376</t>
+          <t>33.673</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>32.726</t>
+          <t>32.322</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57.151</t>
+          <t>52.226</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.471</t>
+          <t>36.319</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>59.106</t>
+          <t>26.842</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
